--- a/outputs-HGR-r202/train-f__UBA932_split_pruned.xlsx
+++ b/outputs-HGR-r202/train-f__UBA932_split_pruned.xlsx
@@ -10,6 +10,7 @@
     <sheet name="quadratic-svm-score4" sheetId="3" r:id="rId5"/>
     <sheet name="quadratic-svm-score3" sheetId="4" r:id="rId6"/>
     <sheet name="quadratic-svm-score2" sheetId="5" r:id="rId7"/>
+    <sheet name="quadratic-svm-score1" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
@@ -17,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="1028">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1307" uniqueCount="1283">
   <si>
     <t>Row</t>
   </si>
@@ -3101,6 +3102,771 @@
   </si>
   <si>
     <t>label_UMGS715_79.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1292_19.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1837_10.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1837_12.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1837_13.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1837_14.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1837_20.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1837_22.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1837_36.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1837_37.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1837_38.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1837_39.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1837_40.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1837_42.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1837_44.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1837_48.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1837_50.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1837_56.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1837_61.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1837_65.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1837_77.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1837_82.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1837_83.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1837_85.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1837_89.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1837_91.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1837_97.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS480_15.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS480_16.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS480_23.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS480_27.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS480_28.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS480_29.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS480_39.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS480_44.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS480_47.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS480_5.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS480_50.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS480_53.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS480_9.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS654_12.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS654_17.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS654_18.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS654_21.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS654_25.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS654_28.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS654_36.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS654_38.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS654_4.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS654_40.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS654_47.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS654_48.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS654_5.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1093_100.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1093_102.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1093_15.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1093_21.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1093_26.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1093_31.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1093_32.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1093_34.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1093_35.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1093_37.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1093_40.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1093_42.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1093_46.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1093_47.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1093_51.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1093_53.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1093_66.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1093_75.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1093_77.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1093_78.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1093_91.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1093_93.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1093_94.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1505_19.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1505_20.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1505_29.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1505_33.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1505_34.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1505_4.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1505_40.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1505_43.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1505_46.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1505_55.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1505_66.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1505_68.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1505_69.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1505_70.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1505_74.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1505_80.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1505_86.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1505_87.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1505_88.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1505_92.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1505_94.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1505_98.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS328_15.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS328_24.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS328_29.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS328_6.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS328_8.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS409_23.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS409_28.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS422_1.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS422_13.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS422_21.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS422_23.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS422_34.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS422_44.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS422_46.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS422_50.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS422_51.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS422_53.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS422_55.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS422_58.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS422_6.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS422_60.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS422_62.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS422_7.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS540_10.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS540_12.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS540_17.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS540_21.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS540_23.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS540_25.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS540_3.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS540_35.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS540_39.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS540_45.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS540_47.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS552_1.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS552_11.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS552_13.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS552_21.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS552_23.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS552_25.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS552_31.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS552_33.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS579_0.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS579_14.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS579_26.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS579_28.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS579_35.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS579_8.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS579_9.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS648_0.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS648_15.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS648_19.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS648_2.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS648_23.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS648_29.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS648_36.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS648_38.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS648_47.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS648_50.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS648_51.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS648_55.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS648_58.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS648_59.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS648_64.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS648_7.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS648_73.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS648_76.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS648_88.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS648_89.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS648_96.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS764_13.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS764_15.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS764_20.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS764_25.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS764_35.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS764_36.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS764_42.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS764_47.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS764_51.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS764_60.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS764_64.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS764_69.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS764_7.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS857_14.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS857_18.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS857_21.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS857_22.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS857_26.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS857_29.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS857_3.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS857_30.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS857_38.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS857_39.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS857_40.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS880_10.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS880_12.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS880_15.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS880_17.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS880_21.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS880_3.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS880_31.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS880_40.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS880_44.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS880_46.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS880_53.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS884_1.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS884_101.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS884_104.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS884_105.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS884_106.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS884_107.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS884_110.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS884_111.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS884_13.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS884_15.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS884_18.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS884_25.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS884_26.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS884_36.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS884_43.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS884_49.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS884_5.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS884_53.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS884_55.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS884_58.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS884_64.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS884_69.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS884_71.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS884_72.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS884_73.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS884_77.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS884_79.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS884_93.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS933_16.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS933_17.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS933_18.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS933_28.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS933_30.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS933_31.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS933_32.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS933_35.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS933_4.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS933_7.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS933_8.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS715_15.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS715_17.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS715_27.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS715_44.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS715_49.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS715_5.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS715_61.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS715_63.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS715_66.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS715_68.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS715_69.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS715_72.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS715_77.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS715_81.fasta</t>
   </si>
 </sst>
 </file>
@@ -3121,7 +3887,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -3137,11 +3903,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -3151,6 +3919,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -23744,4 +24514,5141 @@
     </row>
   </sheetData>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F256"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="24.7109375" customWidth="true"/>
+    <col min="2" max="2" width="15.7109375" customWidth="true"/>
+    <col min="3" max="3" width="15.7109375" customWidth="true"/>
+    <col min="4" max="4" width="15.7109375" customWidth="true"/>
+    <col min="5" max="5" width="10.28515625" customWidth="true"/>
+    <col min="6" max="6" width="6.42578125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="9" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B2">
+        <v>0.98567624034211587</v>
+      </c>
+      <c r="C2">
+        <v>0.014323759657861861</v>
+      </c>
+      <c r="D2">
+        <v>2.2220675286722834e-14</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="9" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B3">
+        <v>0.17771657551898237</v>
+      </c>
+      <c r="C3">
+        <v>0.82228342448099534</v>
+      </c>
+      <c r="D3">
+        <v>2.2201442902592968e-14</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="9" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B4">
+        <v>0.80102804019809037</v>
+      </c>
+      <c r="C4">
+        <v>0.19897195980188742</v>
+      </c>
+      <c r="D4">
+        <v>2.2201029140915126e-14</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="9" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B5">
+        <v>0.88849073001353851</v>
+      </c>
+      <c r="C5">
+        <v>0.11150926998643929</v>
+      </c>
+      <c r="D5">
+        <v>2.2199726297533849e-14</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="9" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B6">
+        <v>0.29286293584561252</v>
+      </c>
+      <c r="C6">
+        <v>0.70713706415436528</v>
+      </c>
+      <c r="D6">
+        <v>2.2202031877133437e-14</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="9" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B7">
+        <v>0.90584969495511192</v>
+      </c>
+      <c r="C7">
+        <v>0.094150305044865962</v>
+      </c>
+      <c r="D7">
+        <v>2.2199763470607788e-14</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="9" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B8">
+        <v>0.93293323382177851</v>
+      </c>
+      <c r="C8">
+        <v>0.067066766178199247</v>
+      </c>
+      <c r="D8">
+        <v>2.2199504511925586e-14</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="9" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B9">
+        <v>0.86476260686981943</v>
+      </c>
+      <c r="C9">
+        <v>0.13523739313015828</v>
+      </c>
+      <c r="D9">
+        <v>2.2200349274048902e-14</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="9" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B10">
+        <v>0.57840982003091657</v>
+      </c>
+      <c r="C10">
+        <v>0.42159017996906112</v>
+      </c>
+      <c r="D10">
+        <v>2.2203685542841614e-14</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="9" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B11">
+        <v>0.53720149197442124</v>
+      </c>
+      <c r="C11">
+        <v>0.46279850802555667</v>
+      </c>
+      <c r="D11">
+        <v>2.2204170207159111e-14</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="9" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B12">
+        <v>0.14886091189337522</v>
+      </c>
+      <c r="C12">
+        <v>0.85113908810660255</v>
+      </c>
+      <c r="D12">
+        <v>2.2200155606531863e-14</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="9" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B13">
+        <v>0.46013835984382973</v>
+      </c>
+      <c r="C13">
+        <v>0.53986164015614813</v>
+      </c>
+      <c r="D13">
+        <v>2.2204044321700324e-14</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="9" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B14">
+        <v>0.99996858625417873</v>
+      </c>
+      <c r="C14">
+        <v>3.1413745799034785e-05</v>
+      </c>
+      <c r="D14">
+        <v>2.2206809416918896e-14</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="9" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B15">
+        <v>0.99189094981853321</v>
+      </c>
+      <c r="C15">
+        <v>0.0081090501814445205</v>
+      </c>
+      <c r="D15">
+        <v>2.2198253055983507e-14</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="9" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B16">
+        <v>0.72256127678584325</v>
+      </c>
+      <c r="C16">
+        <v>0.27743872321413449</v>
+      </c>
+      <c r="D16">
+        <v>2.2202798151738137e-14</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="9" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B17">
+        <v>0.3225108871497403</v>
+      </c>
+      <c r="C17">
+        <v>0.67748911285023561</v>
+      </c>
+      <c r="D17">
+        <v>2.4130730656253234e-14</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="9" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B18">
+        <v>0.91574407511461975</v>
+      </c>
+      <c r="C18">
+        <v>0.084255924885357991</v>
+      </c>
+      <c r="D18">
+        <v>2.2199197818645051e-14</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="9" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B19">
+        <v>0.95660479510829888</v>
+      </c>
+      <c r="C19">
+        <v>0.043395204891678814</v>
+      </c>
+      <c r="D19">
+        <v>2.2199186416495332e-14</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="9" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B20">
+        <v>0.46178571423946446</v>
+      </c>
+      <c r="C20">
+        <v>0.53821428576051333</v>
+      </c>
+      <c r="D20">
+        <v>2.2204066974938977e-14</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="9" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B21">
+        <v>0.99514348789034734</v>
+      </c>
+      <c r="C21">
+        <v>0.0048565121096303433</v>
+      </c>
+      <c r="D21">
+        <v>2.2276368023098196e-14</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="9" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B22">
+        <v>0.99691160162779313</v>
+      </c>
+      <c r="C22">
+        <v>0.0030883983721235308</v>
+      </c>
+      <c r="D22">
+        <v>8.3336466982368239e-14</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="9" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B23">
+        <v>0.99456046069442627</v>
+      </c>
+      <c r="C23">
+        <v>0.005439539305551448</v>
+      </c>
+      <c r="D23">
+        <v>2.2248690720755551e-14</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="9" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B24">
+        <v>0.98019287491654328</v>
+      </c>
+      <c r="C24">
+        <v>0.019807125083434445</v>
+      </c>
+      <c r="D24">
+        <v>2.2198469887914749e-14</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="9" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B25">
+        <v>0.69758587564255248</v>
+      </c>
+      <c r="C25">
+        <v>0.30241412435742543</v>
+      </c>
+      <c r="D25">
+        <v>2.2202418559075193e-14</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="9" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B26">
+        <v>0.29827974284533226</v>
+      </c>
+      <c r="C26">
+        <v>0.70172025715464548</v>
+      </c>
+      <c r="D26">
+        <v>2.2202144898372752e-14</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="9" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B27">
+        <v>0.97870323150862537</v>
+      </c>
+      <c r="C27">
+        <v>0.021296768491348376</v>
+      </c>
+      <c r="D27">
+        <v>2.6232634627877437e-14</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="9" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B28">
+        <v>0.99952599240239637</v>
+      </c>
+      <c r="C28">
+        <v>0.00047400759758148454</v>
+      </c>
+      <c r="D28">
+        <v>2.2231778488936767e-14</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="9" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B29">
+        <v>0.99527673026995034</v>
+      </c>
+      <c r="C29">
+        <v>0.0047232697300258484</v>
+      </c>
+      <c r="D29">
+        <v>2.3757327964537994e-14</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="9" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B30">
+        <v>0.99659976456790778</v>
+      </c>
+      <c r="C30">
+        <v>0.0034002354320627525</v>
+      </c>
+      <c r="D30">
+        <v>2.957288936663924e-14</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="9" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B31">
+        <v>0.99762959136475737</v>
+      </c>
+      <c r="C31">
+        <v>0.0023704086352185493</v>
+      </c>
+      <c r="D31">
+        <v>2.4060975197051596e-14</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="9" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B32">
+        <v>0.99866668689617</v>
+      </c>
+      <c r="C32">
+        <v>0.0013333131038077695</v>
+      </c>
+      <c r="D32">
+        <v>2.2244068150398005e-14</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="9" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B33">
+        <v>0.99993012140928883</v>
+      </c>
+      <c r="C33">
+        <v>6.9878590688912629e-05</v>
+      </c>
+      <c r="D33">
+        <v>2.220793820211131e-14</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="9" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B34">
+        <v>0.99399118162942868</v>
+      </c>
+      <c r="C34">
+        <v>0.0060088183705418853</v>
+      </c>
+      <c r="D34">
+        <v>2.9388972886914716e-14</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="9" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B35">
+        <v>0.99214791751768505</v>
+      </c>
+      <c r="C35">
+        <v>0.007852082482283267</v>
+      </c>
+      <c r="D35">
+        <v>3.1601420102173071e-14</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="9" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B36">
+        <v>0.9246075559647553</v>
+      </c>
+      <c r="C36">
+        <v>0.075392444035222411</v>
+      </c>
+      <c r="D36">
+        <v>2.2199316009996552e-14</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="9" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B37">
+        <v>0.99977991031164459</v>
+      </c>
+      <c r="C37">
+        <v>0.0002200896883331271</v>
+      </c>
+      <c r="D37">
+        <v>2.2207917789057322e-14</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="9" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B38">
+        <v>0.99740250653950446</v>
+      </c>
+      <c r="C38">
+        <v>0.0025974934604569211</v>
+      </c>
+      <c r="D38">
+        <v>3.8611884686155343e-14</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="9" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B39">
+        <v>0.58004172163145129</v>
+      </c>
+      <c r="C39">
+        <v>0.41995827836843308</v>
+      </c>
+      <c r="D39">
+        <v>1.1554747567135656e-13</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="9" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B40">
+        <v>0.99985064561230785</v>
+      </c>
+      <c r="C40">
+        <v>0.00014935438766996162</v>
+      </c>
+      <c r="D40">
+        <v>2.2215882946094864e-14</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="9" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B41">
+        <v>0.9991152905134143</v>
+      </c>
+      <c r="C41">
+        <v>0.00088470948656348646</v>
+      </c>
+      <c r="D41">
+        <v>2.2227339625797682e-14</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="9" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B42">
+        <v>0.99994988622084791</v>
+      </c>
+      <c r="C42">
+        <v>5.0113779129877199e-05</v>
+      </c>
+      <c r="D42">
+        <v>2.2207463548442623e-14</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="9" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B43">
+        <v>0.99813548629421744</v>
+      </c>
+      <c r="C43">
+        <v>0.0018645137057479138</v>
+      </c>
+      <c r="D43">
+        <v>3.4702219930479838e-14</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="9" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B44">
+        <v>0.99952621727201507</v>
+      </c>
+      <c r="C44">
+        <v>0.00047378272796275747</v>
+      </c>
+      <c r="D44">
+        <v>2.2241238277019434e-14</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="9" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B45">
+        <v>0.98161162497459475</v>
+      </c>
+      <c r="C45">
+        <v>0.018388375025372442</v>
+      </c>
+      <c r="D45">
+        <v>3.2910668633593454e-14</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="9" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B46">
+        <v>0.99602771225345921</v>
+      </c>
+      <c r="C46">
+        <v>0.0039722877464791447</v>
+      </c>
+      <c r="D46">
+        <v>6.168470817313035e-14</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="9" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B47">
+        <v>0.99971898379027091</v>
+      </c>
+      <c r="C47">
+        <v>0.0002810162097069355</v>
+      </c>
+      <c r="D47">
+        <v>2.222502922164704e-14</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="9" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B48">
+        <v>0.97826420858698826</v>
+      </c>
+      <c r="C48">
+        <v>0.021735791412989616</v>
+      </c>
+      <c r="D48">
+        <v>2.2198489326911173e-14</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="9" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B49">
+        <v>0.99718779271810809</v>
+      </c>
+      <c r="C49">
+        <v>0.0028122072818551501</v>
+      </c>
+      <c r="D49">
+        <v>3.6801010021811745e-14</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="9" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B50">
+        <v>0.063846654345714265</v>
+      </c>
+      <c r="C50">
+        <v>0.93615334565426356</v>
+      </c>
+      <c r="D50">
+        <v>2.219943072719901e-14</v>
+      </c>
+      <c r="E50">
+        <v>2</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="9" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B51">
+        <v>0.8570049460488367</v>
+      </c>
+      <c r="C51">
+        <v>0.14299505395114101</v>
+      </c>
+      <c r="D51">
+        <v>2.2271481887187041e-14</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="9" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B52">
+        <v>0.91430739623752721</v>
+      </c>
+      <c r="C52">
+        <v>0.085692603762450623</v>
+      </c>
+      <c r="D52">
+        <v>2.2200109798010204e-14</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="9" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B53">
+        <v>0.99967685663340167</v>
+      </c>
+      <c r="C53">
+        <v>0.0003231433665761328</v>
+      </c>
+      <c r="D53">
+        <v>2.2223891433665272e-14</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="9" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B54">
+        <v>0.14496933443124616</v>
+      </c>
+      <c r="C54">
+        <v>0.85503066556864271</v>
+      </c>
+      <c r="D54">
+        <v>1.1102694081358712e-13</v>
+      </c>
+      <c r="E54">
+        <v>2</v>
+      </c>
+      <c r="F54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="9" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B55">
+        <v>0.012276459666537962</v>
+      </c>
+      <c r="C55">
+        <v>0.9877235403334399</v>
+      </c>
+      <c r="D55">
+        <v>2.2198263158749507e-14</v>
+      </c>
+      <c r="E55">
+        <v>2</v>
+      </c>
+      <c r="F55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="9" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B56">
+        <v>0.00017232501322484339</v>
+      </c>
+      <c r="C56">
+        <v>0.99982767498675307</v>
+      </c>
+      <c r="D56">
+        <v>2.2203278748857736e-14</v>
+      </c>
+      <c r="E56">
+        <v>2</v>
+      </c>
+      <c r="F56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="9" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B57">
+        <v>0.00086163302317210128</v>
+      </c>
+      <c r="C57">
+        <v>0.99913836697680569</v>
+      </c>
+      <c r="D57">
+        <v>2.2198826650269684e-14</v>
+      </c>
+      <c r="E57">
+        <v>2</v>
+      </c>
+      <c r="F57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="9" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B58">
+        <v>7.2706064034150898e-05</v>
+      </c>
+      <c r="C58">
+        <v>0.9999272939359436</v>
+      </c>
+      <c r="D58">
+        <v>2.2203944433748273e-14</v>
+      </c>
+      <c r="E58">
+        <v>2</v>
+      </c>
+      <c r="F58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="9" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B59">
+        <v>0.0013020509714285551</v>
+      </c>
+      <c r="C59">
+        <v>0.99869794902854925</v>
+      </c>
+      <c r="D59">
+        <v>2.219808009179196e-14</v>
+      </c>
+      <c r="E59">
+        <v>2</v>
+      </c>
+      <c r="F59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="9" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B60">
+        <v>0.00095757294487015256</v>
+      </c>
+      <c r="C60">
+        <v>0.9990424270551076</v>
+      </c>
+      <c r="D60">
+        <v>2.2198667932429456e-14</v>
+      </c>
+      <c r="E60">
+        <v>2</v>
+      </c>
+      <c r="F60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="9" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B61">
+        <v>0.0030899260694536097</v>
+      </c>
+      <c r="C61">
+        <v>0.99691007393052411</v>
+      </c>
+      <c r="D61">
+        <v>2.2198128335451427e-14</v>
+      </c>
+      <c r="E61">
+        <v>2</v>
+      </c>
+      <c r="F61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="9" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B62">
+        <v>0.0020108503167751311</v>
+      </c>
+      <c r="C62">
+        <v>0.99798914968320263</v>
+      </c>
+      <c r="D62">
+        <v>2.2198106325085417e-14</v>
+      </c>
+      <c r="E62">
+        <v>2</v>
+      </c>
+      <c r="F62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="9" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B63">
+        <v>0.0014263458077597424</v>
+      </c>
+      <c r="C63">
+        <v>0.99857365419221811</v>
+      </c>
+      <c r="D63">
+        <v>2.2198089420989105e-14</v>
+      </c>
+      <c r="E63">
+        <v>2</v>
+      </c>
+      <c r="F63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="9" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B64">
+        <v>0.0075246430414611272</v>
+      </c>
+      <c r="C64">
+        <v>0.99247535695851674</v>
+      </c>
+      <c r="D64">
+        <v>2.2198271775133105e-14</v>
+      </c>
+      <c r="E64">
+        <v>2</v>
+      </c>
+      <c r="F64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="9" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B65">
+        <v>0.0010354276425122012</v>
+      </c>
+      <c r="C65">
+        <v>0.99896457235746572</v>
+      </c>
+      <c r="D65">
+        <v>2.219808129321161e-14</v>
+      </c>
+      <c r="E65">
+        <v>2</v>
+      </c>
+      <c r="F65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="9" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B66">
+        <v>0.00081257057238891608</v>
+      </c>
+      <c r="C66">
+        <v>0.99918742942758887</v>
+      </c>
+      <c r="D66">
+        <v>2.219961997001284e-14</v>
+      </c>
+      <c r="E66">
+        <v>2</v>
+      </c>
+      <c r="F66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="9" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B67">
+        <v>0.00017224562429955613</v>
+      </c>
+      <c r="C67">
+        <v>0.99982775437567828</v>
+      </c>
+      <c r="D67">
+        <v>2.2203373266375666e-14</v>
+      </c>
+      <c r="E67">
+        <v>2</v>
+      </c>
+      <c r="F67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="9" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B68">
+        <v>0.03682852778682412</v>
+      </c>
+      <c r="C68">
+        <v>0.96317147221315369</v>
+      </c>
+      <c r="D68">
+        <v>2.219905994571444e-14</v>
+      </c>
+      <c r="E68">
+        <v>2</v>
+      </c>
+      <c r="F68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="9" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B69">
+        <v>0.011138114042446256</v>
+      </c>
+      <c r="C69">
+        <v>0.98886188595753155</v>
+      </c>
+      <c r="D69">
+        <v>2.2198219691914505e-14</v>
+      </c>
+      <c r="E69">
+        <v>2</v>
+      </c>
+      <c r="F69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="9" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B70">
+        <v>0.011131742710417161</v>
+      </c>
+      <c r="C70">
+        <v>0.98886825728956063</v>
+      </c>
+      <c r="D70">
+        <v>2.2198313783398012e-14</v>
+      </c>
+      <c r="E70">
+        <v>2</v>
+      </c>
+      <c r="F70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="9" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B71">
+        <v>0.0013075971865824196</v>
+      </c>
+      <c r="C71">
+        <v>0.99869240281339544</v>
+      </c>
+      <c r="D71">
+        <v>2.2198589293963991e-14</v>
+      </c>
+      <c r="E71">
+        <v>2</v>
+      </c>
+      <c r="F71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="9" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B72">
+        <v>0.016976023991170083</v>
+      </c>
+      <c r="C72">
+        <v>0.98302397600880775</v>
+      </c>
+      <c r="D72">
+        <v>2.2198385429851036e-14</v>
+      </c>
+      <c r="E72">
+        <v>2</v>
+      </c>
+      <c r="F72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="9" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B73">
+        <v>0.0023724642129968757</v>
+      </c>
+      <c r="C73">
+        <v>0.99762753578698093</v>
+      </c>
+      <c r="D73">
+        <v>2.2198113393960612e-14</v>
+      </c>
+      <c r="E73">
+        <v>2</v>
+      </c>
+      <c r="F73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="9" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B74">
+        <v>0.0048062296921610502</v>
+      </c>
+      <c r="C74">
+        <v>0.99519377030781675</v>
+      </c>
+      <c r="D74">
+        <v>2.2198152556581491e-14</v>
+      </c>
+      <c r="E74">
+        <v>2</v>
+      </c>
+      <c r="F74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="9" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B75">
+        <v>0.021578073879863203</v>
+      </c>
+      <c r="C75">
+        <v>0.97842192612011469</v>
+      </c>
+      <c r="D75">
+        <v>2.2198492555687048e-14</v>
+      </c>
+      <c r="E75">
+        <v>2</v>
+      </c>
+      <c r="F75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="9" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B76">
+        <v>0.0055223196816106181</v>
+      </c>
+      <c r="C76">
+        <v>0.99447768031836725</v>
+      </c>
+      <c r="D76">
+        <v>2.2198181852962302e-14</v>
+      </c>
+      <c r="E76">
+        <v>2</v>
+      </c>
+      <c r="F76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="9" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B77">
+        <v>0.008789623972046301</v>
+      </c>
+      <c r="C77">
+        <v>0.99121037602793149</v>
+      </c>
+      <c r="D77">
+        <v>2.2203135601512972e-14</v>
+      </c>
+      <c r="E77">
+        <v>2</v>
+      </c>
+      <c r="F77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="9" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B78">
+        <v>0.027179952741416543</v>
+      </c>
+      <c r="C78">
+        <v>0.97282004725856119</v>
+      </c>
+      <c r="D78">
+        <v>2.219871517597621e-14</v>
+      </c>
+      <c r="E78">
+        <v>2</v>
+      </c>
+      <c r="F78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="9" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B79">
+        <v>0.010559026308021162</v>
+      </c>
+      <c r="C79">
+        <v>0.98944097369195672</v>
+      </c>
+      <c r="D79">
+        <v>2.2198223254337112e-14</v>
+      </c>
+      <c r="E79">
+        <v>2</v>
+      </c>
+      <c r="F79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="9" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B80">
+        <v>0.0024032002320521118</v>
+      </c>
+      <c r="C80">
+        <v>0.99759679976792581</v>
+      </c>
+      <c r="D80">
+        <v>2.21985901200048e-14</v>
+      </c>
+      <c r="E80">
+        <v>2</v>
+      </c>
+      <c r="F80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="9" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B81">
+        <v>0.012107263711221101</v>
+      </c>
+      <c r="C81">
+        <v>0.98789273628875662</v>
+      </c>
+      <c r="D81">
+        <v>2.2198385909163746e-14</v>
+      </c>
+      <c r="E81">
+        <v>2</v>
+      </c>
+      <c r="F81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="9" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B82">
+        <v>0.0012348878839603796</v>
+      </c>
+      <c r="C82">
+        <v>0.99876511211601415</v>
+      </c>
+      <c r="D82">
+        <v>2.5439937648698888e-14</v>
+      </c>
+      <c r="E82">
+        <v>2</v>
+      </c>
+      <c r="F82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="9" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B83">
+        <v>0.0020811326347869286</v>
+      </c>
+      <c r="C83">
+        <v>0.99791886736498037</v>
+      </c>
+      <c r="D83">
+        <v>2.327163975881674e-13</v>
+      </c>
+      <c r="E83">
+        <v>2</v>
+      </c>
+      <c r="F83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="9" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B84">
+        <v>0.0093701118836802249</v>
+      </c>
+      <c r="C84">
+        <v>0.99062988811629749</v>
+      </c>
+      <c r="D84">
+        <v>2.2198297734750194e-14</v>
+      </c>
+      <c r="E84">
+        <v>2</v>
+      </c>
+      <c r="F84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="9" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B85">
+        <v>0.0014603668731843454</v>
+      </c>
+      <c r="C85">
+        <v>0.9985396331267935</v>
+      </c>
+      <c r="D85">
+        <v>2.2198096883004842e-14</v>
+      </c>
+      <c r="E85">
+        <v>2</v>
+      </c>
+      <c r="F85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="9" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B86">
+        <v>0.027463660691751299</v>
+      </c>
+      <c r="C86">
+        <v>0.97253633930822658</v>
+      </c>
+      <c r="D86">
+        <v>2.2198554615698835e-14</v>
+      </c>
+      <c r="E86">
+        <v>2</v>
+      </c>
+      <c r="F86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="9" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B87">
+        <v>0.0009655573935362416</v>
+      </c>
+      <c r="C87">
+        <v>0.99903444260644148</v>
+      </c>
+      <c r="D87">
+        <v>2.223717700859892e-14</v>
+      </c>
+      <c r="E87">
+        <v>2</v>
+      </c>
+      <c r="F87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="9" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B88">
+        <v>0.019938174708485152</v>
+      </c>
+      <c r="C88">
+        <v>0.98006182529149155</v>
+      </c>
+      <c r="D88">
+        <v>2.3292947543431612e-14</v>
+      </c>
+      <c r="E88">
+        <v>2</v>
+      </c>
+      <c r="F88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="9" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B89">
+        <v>0.026786583733748259</v>
+      </c>
+      <c r="C89">
+        <v>0.97321341626622959</v>
+      </c>
+      <c r="D89">
+        <v>2.2198656212312265e-14</v>
+      </c>
+      <c r="E89">
+        <v>2</v>
+      </c>
+      <c r="F89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="9" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B90">
+        <v>0.011427820239844623</v>
+      </c>
+      <c r="C90">
+        <v>0.98857217976012901</v>
+      </c>
+      <c r="D90">
+        <v>2.6363398467639788e-14</v>
+      </c>
+      <c r="E90">
+        <v>2</v>
+      </c>
+      <c r="F90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="9" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B91">
+        <v>0.033505750074647483</v>
+      </c>
+      <c r="C91">
+        <v>0.96649424992533028</v>
+      </c>
+      <c r="D91">
+        <v>2.219868811762845e-14</v>
+      </c>
+      <c r="E91">
+        <v>2</v>
+      </c>
+      <c r="F91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="9" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B92">
+        <v>0.019609064261894033</v>
+      </c>
+      <c r="C92">
+        <v>0.98039093573791469</v>
+      </c>
+      <c r="D92">
+        <v>1.9123503847664811e-13</v>
+      </c>
+      <c r="E92">
+        <v>2</v>
+      </c>
+      <c r="F92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="9" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B93">
+        <v>0.019998883581126815</v>
+      </c>
+      <c r="C93">
+        <v>0.9800011164188509</v>
+      </c>
+      <c r="D93">
+        <v>2.2198450992383719e-14</v>
+      </c>
+      <c r="E93">
+        <v>2</v>
+      </c>
+      <c r="F93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="9" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B94">
+        <v>0.027195916367278545</v>
+      </c>
+      <c r="C94">
+        <v>0.97280408363269921</v>
+      </c>
+      <c r="D94">
+        <v>2.2198450455911414e-14</v>
+      </c>
+      <c r="E94">
+        <v>2</v>
+      </c>
+      <c r="F94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="9" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B95">
+        <v>0.012571812076969318</v>
+      </c>
+      <c r="C95">
+        <v>0.98742818792300857</v>
+      </c>
+      <c r="D95">
+        <v>2.2198307854979088e-14</v>
+      </c>
+      <c r="E95">
+        <v>2</v>
+      </c>
+      <c r="F95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="9" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B96">
+        <v>0.061170143925736088</v>
+      </c>
+      <c r="C96">
+        <v>0.93882985606999991</v>
+      </c>
+      <c r="D96">
+        <v>4.2640028613358015e-12</v>
+      </c>
+      <c r="E96">
+        <v>2</v>
+      </c>
+      <c r="F96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="9" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B97">
+        <v>0.28107754479822078</v>
+      </c>
+      <c r="C97">
+        <v>0.71892245520175713</v>
+      </c>
+      <c r="D97">
+        <v>2.2202429400214612e-14</v>
+      </c>
+      <c r="E97">
+        <v>2</v>
+      </c>
+      <c r="F97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="9" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B98">
+        <v>0.001724489804330984</v>
+      </c>
+      <c r="C98">
+        <v>0.99827551019564698</v>
+      </c>
+      <c r="D98">
+        <v>2.2203124798447284e-14</v>
+      </c>
+      <c r="E98">
+        <v>2</v>
+      </c>
+      <c r="F98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="9" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B99">
+        <v>0.0023419333947960531</v>
+      </c>
+      <c r="C99">
+        <v>0.99765806660517065</v>
+      </c>
+      <c r="D99">
+        <v>3.334473592593679e-14</v>
+      </c>
+      <c r="E99">
+        <v>2</v>
+      </c>
+      <c r="F99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="9" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B100">
+        <v>0.002851788473239609</v>
+      </c>
+      <c r="C100">
+        <v>0.99714821152672972</v>
+      </c>
+      <c r="D100">
+        <v>3.0703259888377827e-14</v>
+      </c>
+      <c r="E100">
+        <v>2</v>
+      </c>
+      <c r="F100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="9" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B101">
+        <v>0.013156388189662726</v>
+      </c>
+      <c r="C101">
+        <v>0.98684361181031499</v>
+      </c>
+      <c r="D101">
+        <v>2.2198325622798204e-14</v>
+      </c>
+      <c r="E101">
+        <v>2</v>
+      </c>
+      <c r="F101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="9" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B102">
+        <v>0.004138100617881401</v>
+      </c>
+      <c r="C102">
+        <v>0.99586189938209635</v>
+      </c>
+      <c r="D102">
+        <v>2.2198161285416782e-14</v>
+      </c>
+      <c r="E102">
+        <v>2</v>
+      </c>
+      <c r="F102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="9" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B103">
+        <v>0.0029622634302752882</v>
+      </c>
+      <c r="C103">
+        <v>0.9970377365697024</v>
+      </c>
+      <c r="D103">
+        <v>2.2198121453917008e-14</v>
+      </c>
+      <c r="E103">
+        <v>2</v>
+      </c>
+      <c r="F103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="9" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B104">
+        <v>0.016833896344329968</v>
+      </c>
+      <c r="C104">
+        <v>0.98316610365564783</v>
+      </c>
+      <c r="D104">
+        <v>2.2198438515232604e-14</v>
+      </c>
+      <c r="E104">
+        <v>2</v>
+      </c>
+      <c r="F104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="9" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B105">
+        <v>0.018905487106417901</v>
+      </c>
+      <c r="C105">
+        <v>0.98109451289355987</v>
+      </c>
+      <c r="D105">
+        <v>2.219855870985599e-14</v>
+      </c>
+      <c r="E105">
+        <v>2</v>
+      </c>
+      <c r="F105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="9" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B106">
+        <v>0.0061507402547271777</v>
+      </c>
+      <c r="C106">
+        <v>0.99384925974525062</v>
+      </c>
+      <c r="D106">
+        <v>2.2198215930315819e-14</v>
+      </c>
+      <c r="E106">
+        <v>2</v>
+      </c>
+      <c r="F106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="9" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B107">
+        <v>0.0033824019227448421</v>
+      </c>
+      <c r="C107">
+        <v>0.99661759807723305</v>
+      </c>
+      <c r="D107">
+        <v>2.2202055610377072e-14</v>
+      </c>
+      <c r="E107">
+        <v>2</v>
+      </c>
+      <c r="F107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="9" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B108">
+        <v>0.002890798967261039</v>
+      </c>
+      <c r="C108">
+        <v>0.99710920103271683</v>
+      </c>
+      <c r="D108">
+        <v>2.2198138530646722e-14</v>
+      </c>
+      <c r="E108">
+        <v>2</v>
+      </c>
+      <c r="F108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="9" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B109">
+        <v>0.0074582587857593557</v>
+      </c>
+      <c r="C109">
+        <v>0.99254174121421845</v>
+      </c>
+      <c r="D109">
+        <v>2.2198245514220549e-14</v>
+      </c>
+      <c r="E109">
+        <v>2</v>
+      </c>
+      <c r="F109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="9" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B110">
+        <v>0.00098722070506390572</v>
+      </c>
+      <c r="C110">
+        <v>0.9990127792949135</v>
+      </c>
+      <c r="D110">
+        <v>2.2542227945112646e-14</v>
+      </c>
+      <c r="E110">
+        <v>2</v>
+      </c>
+      <c r="F110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="9" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B111">
+        <v>0.0013478755037593323</v>
+      </c>
+      <c r="C111">
+        <v>0.99865212449621843</v>
+      </c>
+      <c r="D111">
+        <v>2.2198583517568689e-14</v>
+      </c>
+      <c r="E111">
+        <v>2</v>
+      </c>
+      <c r="F111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="9" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B112">
+        <v>0.0011007804352536866</v>
+      </c>
+      <c r="C112">
+        <v>0.99889921956472405</v>
+      </c>
+      <c r="D112">
+        <v>2.2199862285722633e-14</v>
+      </c>
+      <c r="E112">
+        <v>2</v>
+      </c>
+      <c r="F112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="9" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B113">
+        <v>0.0017065851214935548</v>
+      </c>
+      <c r="C113">
+        <v>0.99829341487848433</v>
+      </c>
+      <c r="D113">
+        <v>2.2198098069071797e-14</v>
+      </c>
+      <c r="E113">
+        <v>2</v>
+      </c>
+      <c r="F113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="9" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B114">
+        <v>0.0025318207924528617</v>
+      </c>
+      <c r="C114">
+        <v>0.99746817920752495</v>
+      </c>
+      <c r="D114">
+        <v>2.2198120307172548e-14</v>
+      </c>
+      <c r="E114">
+        <v>2</v>
+      </c>
+      <c r="F114">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="9" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B115">
+        <v>0.0019979021049892271</v>
+      </c>
+      <c r="C115">
+        <v>0.99800209789498862</v>
+      </c>
+      <c r="D115">
+        <v>2.2198098914193858e-14</v>
+      </c>
+      <c r="E115">
+        <v>2</v>
+      </c>
+      <c r="F115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="9" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B116">
+        <v>0.0016066774275926878</v>
+      </c>
+      <c r="C116">
+        <v>0.99839332257238522</v>
+      </c>
+      <c r="D116">
+        <v>2.2198096251203877e-14</v>
+      </c>
+      <c r="E116">
+        <v>2</v>
+      </c>
+      <c r="F116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="9" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B117">
+        <v>0.0032835805904018688</v>
+      </c>
+      <c r="C117">
+        <v>0.99671641940957589</v>
+      </c>
+      <c r="D117">
+        <v>2.2198132942200014e-14</v>
+      </c>
+      <c r="E117">
+        <v>2</v>
+      </c>
+      <c r="F117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="9" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B118">
+        <v>0.042426976671854459</v>
+      </c>
+      <c r="C118">
+        <v>0.95757302332811622</v>
+      </c>
+      <c r="D118">
+        <v>2.9297284250977134e-14</v>
+      </c>
+      <c r="E118">
+        <v>2</v>
+      </c>
+      <c r="F118">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="9" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B119">
+        <v>0.0063259194098679626</v>
+      </c>
+      <c r="C119">
+        <v>0.99367408059010986</v>
+      </c>
+      <c r="D119">
+        <v>2.2198135554806939e-14</v>
+      </c>
+      <c r="E119">
+        <v>2</v>
+      </c>
+      <c r="F119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="9" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B120">
+        <v>0.0013052641608898177</v>
+      </c>
+      <c r="C120">
+        <v>0.99869473583908797</v>
+      </c>
+      <c r="D120">
+        <v>2.2198071327169694e-14</v>
+      </c>
+      <c r="E120">
+        <v>2</v>
+      </c>
+      <c r="F120">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="9" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B121">
+        <v>0.0020074466720214805</v>
+      </c>
+      <c r="C121">
+        <v>0.99799255332795633</v>
+      </c>
+      <c r="D121">
+        <v>2.2198086656239926e-14</v>
+      </c>
+      <c r="E121">
+        <v>2</v>
+      </c>
+      <c r="F121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="9" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B122">
+        <v>0.019449227336020718</v>
+      </c>
+      <c r="C122">
+        <v>0.98055077266395718</v>
+      </c>
+      <c r="D122">
+        <v>2.219832954769591e-14</v>
+      </c>
+      <c r="E122">
+        <v>2</v>
+      </c>
+      <c r="F122">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="9" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B123">
+        <v>0.0070735889752790576</v>
+      </c>
+      <c r="C123">
+        <v>0.9929264110246987</v>
+      </c>
+      <c r="D123">
+        <v>2.2244183905690479e-14</v>
+      </c>
+      <c r="E123">
+        <v>2</v>
+      </c>
+      <c r="F123">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="9" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B124">
+        <v>5.9008879200712154e-05</v>
+      </c>
+      <c r="C124">
+        <v>0.99994099112077717</v>
+      </c>
+      <c r="D124">
+        <v>2.2204136222687497e-14</v>
+      </c>
+      <c r="E124">
+        <v>2</v>
+      </c>
+      <c r="F124">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="9" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B125">
+        <v>2.6658188565016e-06</v>
+      </c>
+      <c r="C125">
+        <v>0.99999733418112124</v>
+      </c>
+      <c r="D125">
+        <v>2.2204444850124633e-14</v>
+      </c>
+      <c r="E125">
+        <v>2</v>
+      </c>
+      <c r="F125">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="9" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B126">
+        <v>0.00021431290194332925</v>
+      </c>
+      <c r="C126">
+        <v>0.99978568709803439</v>
+      </c>
+      <c r="D126">
+        <v>2.2203083516672884e-14</v>
+      </c>
+      <c r="E126">
+        <v>2</v>
+      </c>
+      <c r="F126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="9" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B127">
+        <v>2.1951168384459025e-05</v>
+      </c>
+      <c r="C127">
+        <v>0.99997804883159336</v>
+      </c>
+      <c r="D127">
+        <v>2.2204348976465214e-14</v>
+      </c>
+      <c r="E127">
+        <v>2</v>
+      </c>
+      <c r="F127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="9" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B128">
+        <v>7.8884011716126495e-05</v>
+      </c>
+      <c r="C128">
+        <v>0.99992111598826161</v>
+      </c>
+      <c r="D128">
+        <v>2.2203928434878092e-14</v>
+      </c>
+      <c r="E128">
+        <v>2</v>
+      </c>
+      <c r="F128">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="9" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B129">
+        <v>0.00010402302613476398</v>
+      </c>
+      <c r="C129">
+        <v>0.99989597697384291</v>
+      </c>
+      <c r="D129">
+        <v>2.2203850316074531e-14</v>
+      </c>
+      <c r="E129">
+        <v>2</v>
+      </c>
+      <c r="F129">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="9" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B130">
+        <v>0.0001156287979263913</v>
+      </c>
+      <c r="C130">
+        <v>0.99988437120205143</v>
+      </c>
+      <c r="D130">
+        <v>2.2203841092626292e-14</v>
+      </c>
+      <c r="E130">
+        <v>2</v>
+      </c>
+      <c r="F130">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="9" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B131">
+        <v>0.020376119445759934</v>
+      </c>
+      <c r="C131">
+        <v>0.9796238805542179</v>
+      </c>
+      <c r="D131">
+        <v>2.2198414598288927e-14</v>
+      </c>
+      <c r="E131">
+        <v>2</v>
+      </c>
+      <c r="F131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="9" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B132">
+        <v>0.068935445245804708</v>
+      </c>
+      <c r="C132">
+        <v>0.93106455475417316</v>
+      </c>
+      <c r="D132">
+        <v>2.219951841069532e-14</v>
+      </c>
+      <c r="E132">
+        <v>2</v>
+      </c>
+      <c r="F132">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="9" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B133">
+        <v>0.0036312011986407581</v>
+      </c>
+      <c r="C133">
+        <v>0.996368798801337</v>
+      </c>
+      <c r="D133">
+        <v>2.2229095504948363e-14</v>
+      </c>
+      <c r="E133">
+        <v>2</v>
+      </c>
+      <c r="F133">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="9" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B134">
+        <v>0.0012098135696393584</v>
+      </c>
+      <c r="C134">
+        <v>0.99879018643033834</v>
+      </c>
+      <c r="D134">
+        <v>2.2198077604924968e-14</v>
+      </c>
+      <c r="E134">
+        <v>2</v>
+      </c>
+      <c r="F134">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="9" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B135">
+        <v>0.0032920404933186468</v>
+      </c>
+      <c r="C135">
+        <v>0.99670795950665902</v>
+      </c>
+      <c r="D135">
+        <v>2.2198111725614372e-14</v>
+      </c>
+      <c r="E135">
+        <v>2</v>
+      </c>
+      <c r="F135">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="9" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B136">
+        <v>0.0040074371841455521</v>
+      </c>
+      <c r="C136">
+        <v>0.99599256281583226</v>
+      </c>
+      <c r="D136">
+        <v>2.2198165916954383e-14</v>
+      </c>
+      <c r="E136">
+        <v>2</v>
+      </c>
+      <c r="F136">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="9" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B137">
+        <v>0.0023968454182982054</v>
+      </c>
+      <c r="C137">
+        <v>0.99760315458163396</v>
+      </c>
+      <c r="D137">
+        <v>6.7871858218484152e-14</v>
+      </c>
+      <c r="E137">
+        <v>2</v>
+      </c>
+      <c r="F137">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="9" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B138">
+        <v>0.0031206024252474376</v>
+      </c>
+      <c r="C138">
+        <v>0.99687939757473032</v>
+      </c>
+      <c r="D138">
+        <v>2.2234447248756988e-14</v>
+      </c>
+      <c r="E138">
+        <v>2</v>
+      </c>
+      <c r="F138">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="9" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B139">
+        <v>0.0036170572699462441</v>
+      </c>
+      <c r="C139">
+        <v>0.99638294273003158</v>
+      </c>
+      <c r="D139">
+        <v>2.2202457747177819e-14</v>
+      </c>
+      <c r="E139">
+        <v>2</v>
+      </c>
+      <c r="F139">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="9" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B140">
+        <v>0.0020411236514513271</v>
+      </c>
+      <c r="C140">
+        <v>0.99795887634852642</v>
+      </c>
+      <c r="D140">
+        <v>2.2198111849412526e-14</v>
+      </c>
+      <c r="E140">
+        <v>2</v>
+      </c>
+      <c r="F140">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="9" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B141">
+        <v>0.0021444113874203208</v>
+      </c>
+      <c r="C141">
+        <v>0.99785558861255741</v>
+      </c>
+      <c r="D141">
+        <v>2.2198113046477777e-14</v>
+      </c>
+      <c r="E141">
+        <v>2</v>
+      </c>
+      <c r="F141">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="9" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B142">
+        <v>0.00010598419670422068</v>
+      </c>
+      <c r="C142">
+        <v>0.99989401580327364</v>
+      </c>
+      <c r="D142">
+        <v>2.2203820845347473e-14</v>
+      </c>
+      <c r="E142">
+        <v>2</v>
+      </c>
+      <c r="F142">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="9" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B143">
+        <v>0.0017877234012192069</v>
+      </c>
+      <c r="C143">
+        <v>0.99821227659875855</v>
+      </c>
+      <c r="D143">
+        <v>2.2198093917067777e-14</v>
+      </c>
+      <c r="E143">
+        <v>2</v>
+      </c>
+      <c r="F143">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="9" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B144">
+        <v>6.9890453866965031e-05</v>
+      </c>
+      <c r="C144">
+        <v>0.99993010954611083</v>
+      </c>
+      <c r="D144">
+        <v>2.2204068784256367e-14</v>
+      </c>
+      <c r="E144">
+        <v>2</v>
+      </c>
+      <c r="F144">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="9" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B145">
+        <v>0.0037715736572537756</v>
+      </c>
+      <c r="C145">
+        <v>0.99622842634272391</v>
+      </c>
+      <c r="D145">
+        <v>2.2198124546310966e-14</v>
+      </c>
+      <c r="E145">
+        <v>2</v>
+      </c>
+      <c r="F145">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="9" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B146">
+        <v>0.00017099384562196127</v>
+      </c>
+      <c r="C146">
+        <v>0.99982900615435588</v>
+      </c>
+      <c r="D146">
+        <v>2.2203688224944622e-14</v>
+      </c>
+      <c r="E146">
+        <v>2</v>
+      </c>
+      <c r="F146">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="9" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B147">
+        <v>2.0863876624600204e-05</v>
+      </c>
+      <c r="C147">
+        <v>0.99997913612335321</v>
+      </c>
+      <c r="D147">
+        <v>2.2204367902278898e-14</v>
+      </c>
+      <c r="E147">
+        <v>2</v>
+      </c>
+      <c r="F147">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="9" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B148">
+        <v>0.00031042307936231624</v>
+      </c>
+      <c r="C148">
+        <v>0.99968957692061555</v>
+      </c>
+      <c r="D148">
+        <v>2.2202762531891394e-14</v>
+      </c>
+      <c r="E148">
+        <v>2</v>
+      </c>
+      <c r="F148">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="9" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B149">
+        <v>4.0577982286421827e-05</v>
+      </c>
+      <c r="C149">
+        <v>0.99995942201769139</v>
+      </c>
+      <c r="D149">
+        <v>2.2204256315902773e-14</v>
+      </c>
+      <c r="E149">
+        <v>2</v>
+      </c>
+      <c r="F149">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="9" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B150">
+        <v>0.00040235399052842739</v>
+      </c>
+      <c r="C150">
+        <v>0.99959764600944934</v>
+      </c>
+      <c r="D150">
+        <v>2.2202542739242251e-14</v>
+      </c>
+      <c r="E150">
+        <v>2</v>
+      </c>
+      <c r="F150">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="9" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B151">
+        <v>3.9400297731855102e-05</v>
+      </c>
+      <c r="C151">
+        <v>0.99996059970224593</v>
+      </c>
+      <c r="D151">
+        <v>2.2204268878771612e-14</v>
+      </c>
+      <c r="E151">
+        <v>2</v>
+      </c>
+      <c r="F151">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="9" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B152">
+        <v>0.0036670225280482733</v>
+      </c>
+      <c r="C152">
+        <v>0.9963329774719295</v>
+      </c>
+      <c r="D152">
+        <v>2.2198142571884763e-14</v>
+      </c>
+      <c r="E152">
+        <v>2</v>
+      </c>
+      <c r="F152">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="9" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B153">
+        <v>0.00097788513117635857</v>
+      </c>
+      <c r="C153">
+        <v>0.99902211486880155</v>
+      </c>
+      <c r="D153">
+        <v>2.2199899244270532e-14</v>
+      </c>
+      <c r="E153">
+        <v>2</v>
+      </c>
+      <c r="F153">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="9" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B154">
+        <v>0.0034751147530026425</v>
+      </c>
+      <c r="C154">
+        <v>0.99652488524697524</v>
+      </c>
+      <c r="D154">
+        <v>2.2198127208277624e-14</v>
+      </c>
+      <c r="E154">
+        <v>2</v>
+      </c>
+      <c r="F154">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="9" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B155">
+        <v>3.9296761257692277e-05</v>
+      </c>
+      <c r="C155">
+        <v>0.99996070323872011</v>
+      </c>
+      <c r="D155">
+        <v>2.2204290342275854e-14</v>
+      </c>
+      <c r="E155">
+        <v>2</v>
+      </c>
+      <c r="F155">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="9" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B156">
+        <v>4.5848446258035461e-05</v>
+      </c>
+      <c r="C156">
+        <v>0.99995415155371992</v>
+      </c>
+      <c r="D156">
+        <v>2.2204204656666056e-14</v>
+      </c>
+      <c r="E156">
+        <v>2</v>
+      </c>
+      <c r="F156">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="9" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B157">
+        <v>0.0012752449399123149</v>
+      </c>
+      <c r="C157">
+        <v>0.99872475506006542</v>
+      </c>
+      <c r="D157">
+        <v>2.219904033267493e-14</v>
+      </c>
+      <c r="E157">
+        <v>2</v>
+      </c>
+      <c r="F157">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="9" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B158">
+        <v>0.0025537483100417386</v>
+      </c>
+      <c r="C158">
+        <v>0.99744625168993606</v>
+      </c>
+      <c r="D158">
+        <v>2.2198118295755822e-14</v>
+      </c>
+      <c r="E158">
+        <v>2</v>
+      </c>
+      <c r="F158">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="9" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B159">
+        <v>0.00013963174110192438</v>
+      </c>
+      <c r="C159">
+        <v>0.99986036825887581</v>
+      </c>
+      <c r="D159">
+        <v>2.220413928009524e-14</v>
+      </c>
+      <c r="E159">
+        <v>2</v>
+      </c>
+      <c r="F159">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="9" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B160">
+        <v>0.002096031650771016</v>
+      </c>
+      <c r="C160">
+        <v>0.99790396834920669</v>
+      </c>
+      <c r="D160">
+        <v>2.2198089471106505e-14</v>
+      </c>
+      <c r="E160">
+        <v>2</v>
+      </c>
+      <c r="F160">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="9" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B161">
+        <v>0.00027604305015024611</v>
+      </c>
+      <c r="C161">
+        <v>0.99972395694982752</v>
+      </c>
+      <c r="D161">
+        <v>2.2203075471167384e-14</v>
+      </c>
+      <c r="E161">
+        <v>2</v>
+      </c>
+      <c r="F161">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="9" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B162">
+        <v>0.00071814881255064227</v>
+      </c>
+      <c r="C162">
+        <v>0.99928185118742718</v>
+      </c>
+      <c r="D162">
+        <v>2.2201337764748029e-14</v>
+      </c>
+      <c r="E162">
+        <v>2</v>
+      </c>
+      <c r="F162">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="9" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B163">
+        <v>0.0001554925286860129</v>
+      </c>
+      <c r="C163">
+        <v>0.99984450747129183</v>
+      </c>
+      <c r="D163">
+        <v>2.2203581475286214e-14</v>
+      </c>
+      <c r="E163">
+        <v>2</v>
+      </c>
+      <c r="F163">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="9" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B164">
+        <v>0.0017915461837393815</v>
+      </c>
+      <c r="C164">
+        <v>0.99820845381623835</v>
+      </c>
+      <c r="D164">
+        <v>2.2198086484757933e-14</v>
+      </c>
+      <c r="E164">
+        <v>2</v>
+      </c>
+      <c r="F164">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="9" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B165">
+        <v>0.00015702129744118133</v>
+      </c>
+      <c r="C165">
+        <v>0.99984297870253658</v>
+      </c>
+      <c r="D165">
+        <v>2.2203971020773242e-14</v>
+      </c>
+      <c r="E165">
+        <v>2</v>
+      </c>
+      <c r="F165">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="9" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B166">
+        <v>0.00063213544262584475</v>
+      </c>
+      <c r="C166">
+        <v>0.99936786455735194</v>
+      </c>
+      <c r="D166">
+        <v>2.2201719166270109e-14</v>
+      </c>
+      <c r="E166">
+        <v>2</v>
+      </c>
+      <c r="F166">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="9" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B167">
+        <v>0.002349236545466316</v>
+      </c>
+      <c r="C167">
+        <v>0.99765076345451142</v>
+      </c>
+      <c r="D167">
+        <v>2.2228092455846108e-14</v>
+      </c>
+      <c r="E167">
+        <v>2</v>
+      </c>
+      <c r="F167">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="9" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B168">
+        <v>0.040877871478601502</v>
+      </c>
+      <c r="C168">
+        <v>0.95912212852135803</v>
+      </c>
+      <c r="D168">
+        <v>4.0480543300026652e-14</v>
+      </c>
+      <c r="E168">
+        <v>2</v>
+      </c>
+      <c r="F168">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="9" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B169">
+        <v>0.0049318422826601727</v>
+      </c>
+      <c r="C169">
+        <v>0.9950681577173176</v>
+      </c>
+      <c r="D169">
+        <v>2.2198126139360107e-14</v>
+      </c>
+      <c r="E169">
+        <v>2</v>
+      </c>
+      <c r="F169">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="9" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B170">
+        <v>0.0016228916221089145</v>
+      </c>
+      <c r="C170">
+        <v>0.99837710837786886</v>
+      </c>
+      <c r="D170">
+        <v>2.2198084714119752e-14</v>
+      </c>
+      <c r="E170">
+        <v>2</v>
+      </c>
+      <c r="F170">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="9" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B171">
+        <v>0.0011660491272698879</v>
+      </c>
+      <c r="C171">
+        <v>0.99883395087270788</v>
+      </c>
+      <c r="D171">
+        <v>2.2199670286745634e-14</v>
+      </c>
+      <c r="E171">
+        <v>2</v>
+      </c>
+      <c r="F171">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="9" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B172">
+        <v>0.0025584341679490666</v>
+      </c>
+      <c r="C172">
+        <v>0.9974415658320287</v>
+      </c>
+      <c r="D172">
+        <v>2.2198100470794227e-14</v>
+      </c>
+      <c r="E172">
+        <v>2</v>
+      </c>
+      <c r="F172">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="9" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B173">
+        <v>0.0013988463188752216</v>
+      </c>
+      <c r="C173">
+        <v>0.99860115368110247</v>
+      </c>
+      <c r="D173">
+        <v>2.2199322185726658e-14</v>
+      </c>
+      <c r="E173">
+        <v>2</v>
+      </c>
+      <c r="F173">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="9" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B174">
+        <v>0.00071900969712835206</v>
+      </c>
+      <c r="C174">
+        <v>0.99928099030284945</v>
+      </c>
+      <c r="D174">
+        <v>2.2200882038037666e-14</v>
+      </c>
+      <c r="E174">
+        <v>2</v>
+      </c>
+      <c r="F174">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="9" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B175">
+        <v>0.0019703002449522073</v>
+      </c>
+      <c r="C175">
+        <v>0.99802969975490907</v>
+      </c>
+      <c r="D175">
+        <v>1.3868359915070104e-13</v>
+      </c>
+      <c r="E175">
+        <v>2</v>
+      </c>
+      <c r="F175">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="9" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B176">
+        <v>0.0015039686221678188</v>
+      </c>
+      <c r="C176">
+        <v>0.99849603137780996</v>
+      </c>
+      <c r="D176">
+        <v>2.2198088225058431e-14</v>
+      </c>
+      <c r="E176">
+        <v>2</v>
+      </c>
+      <c r="F176">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="9" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B177">
+        <v>0.00038409981987701274</v>
+      </c>
+      <c r="C177">
+        <v>0.99961590018010071</v>
+      </c>
+      <c r="D177">
+        <v>2.220328282494544e-14</v>
+      </c>
+      <c r="E177">
+        <v>2</v>
+      </c>
+      <c r="F177">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="9" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B178">
+        <v>0.0020747823437431171</v>
+      </c>
+      <c r="C178">
+        <v>0.99792521765623476</v>
+      </c>
+      <c r="D178">
+        <v>2.2198112747104991e-14</v>
+      </c>
+      <c r="E178">
+        <v>2</v>
+      </c>
+      <c r="F178">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="9" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B179">
+        <v>0.0042090709815894483</v>
+      </c>
+      <c r="C179">
+        <v>0.99579092901838828</v>
+      </c>
+      <c r="D179">
+        <v>2.2198141273283114e-14</v>
+      </c>
+      <c r="E179">
+        <v>2</v>
+      </c>
+      <c r="F179">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="9" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B180">
+        <v>0.53009354533649511</v>
+      </c>
+      <c r="C180">
+        <v>0.46990645466347208</v>
+      </c>
+      <c r="D180">
+        <v>3.2746487097272438e-14</v>
+      </c>
+      <c r="E180">
+        <v>1</v>
+      </c>
+      <c r="F180">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="9" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B181">
+        <v>0.0030845778451406361</v>
+      </c>
+      <c r="C181">
+        <v>0.99691542215483708</v>
+      </c>
+      <c r="D181">
+        <v>2.2198124556145376e-14</v>
+      </c>
+      <c r="E181">
+        <v>2</v>
+      </c>
+      <c r="F181">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="9" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B182">
+        <v>0.00015179073713071393</v>
+      </c>
+      <c r="C182">
+        <v>0.99984820926284723</v>
+      </c>
+      <c r="D182">
+        <v>2.2203591123333748e-14</v>
+      </c>
+      <c r="E182">
+        <v>2</v>
+      </c>
+      <c r="F182">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="9" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B183">
+        <v>0.0012849655427113029</v>
+      </c>
+      <c r="C183">
+        <v>0.99871503445726639</v>
+      </c>
+      <c r="D183">
+        <v>2.219808267091788e-14</v>
+      </c>
+      <c r="E183">
+        <v>2</v>
+      </c>
+      <c r="F183">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="9" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B184">
+        <v>0.00011240246343711785</v>
+      </c>
+      <c r="C184">
+        <v>0.99988759753654077</v>
+      </c>
+      <c r="D184">
+        <v>2.2203920840555636e-14</v>
+      </c>
+      <c r="E184">
+        <v>2</v>
+      </c>
+      <c r="F184">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="9" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B185">
+        <v>0.0013324713383360139</v>
+      </c>
+      <c r="C185">
+        <v>0.99866752866164177</v>
+      </c>
+      <c r="D185">
+        <v>2.2201016118246794e-14</v>
+      </c>
+      <c r="E185">
+        <v>2</v>
+      </c>
+      <c r="F185">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="9" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B186">
+        <v>0.0033655012063982864</v>
+      </c>
+      <c r="C186">
+        <v>0.99663449879357946</v>
+      </c>
+      <c r="D186">
+        <v>2.2198119971822365e-14</v>
+      </c>
+      <c r="E186">
+        <v>2</v>
+      </c>
+      <c r="F186">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="9" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B187">
+        <v>0.00067648470650054121</v>
+      </c>
+      <c r="C187">
+        <v>0.99932351529347729</v>
+      </c>
+      <c r="D187">
+        <v>2.2200986086146733e-14</v>
+      </c>
+      <c r="E187">
+        <v>2</v>
+      </c>
+      <c r="F187">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="9" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B188">
+        <v>0.00028787773926590145</v>
+      </c>
+      <c r="C188">
+        <v>0.99971212226071193</v>
+      </c>
+      <c r="D188">
+        <v>2.2202921996069147e-14</v>
+      </c>
+      <c r="E188">
+        <v>2</v>
+      </c>
+      <c r="F188">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="9" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B189">
+        <v>0.00045939224984871527</v>
+      </c>
+      <c r="C189">
+        <v>0.9995406077501291</v>
+      </c>
+      <c r="D189">
+        <v>2.2202120750019293e-14</v>
+      </c>
+      <c r="E189">
+        <v>2</v>
+      </c>
+      <c r="F189">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="9" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B190">
+        <v>0.00016860891114243748</v>
+      </c>
+      <c r="C190">
+        <v>0.99983139108883523</v>
+      </c>
+      <c r="D190">
+        <v>2.220361332434406e-14</v>
+      </c>
+      <c r="E190">
+        <v>2</v>
+      </c>
+      <c r="F190">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="9" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B191">
+        <v>0.00012421182796389091</v>
+      </c>
+      <c r="C191">
+        <v>0.99987578817201384</v>
+      </c>
+      <c r="D191">
+        <v>2.2203972788507007e-14</v>
+      </c>
+      <c r="E191">
+        <v>2</v>
+      </c>
+      <c r="F191">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="9" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B192">
+        <v>0.0013557802215968533</v>
+      </c>
+      <c r="C192">
+        <v>0.99864421977838103</v>
+      </c>
+      <c r="D192">
+        <v>2.2198582546993194e-14</v>
+      </c>
+      <c r="E192">
+        <v>2</v>
+      </c>
+      <c r="F192">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="9" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B193">
+        <v>0.0017125279428250194</v>
+      </c>
+      <c r="C193">
+        <v>0.99828747205715285</v>
+      </c>
+      <c r="D193">
+        <v>2.2198091513381851e-14</v>
+      </c>
+      <c r="E193">
+        <v>2</v>
+      </c>
+      <c r="F193">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="9" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B194">
+        <v>0.0026481635137010325</v>
+      </c>
+      <c r="C194">
+        <v>0.99735183648627679</v>
+      </c>
+      <c r="D194">
+        <v>2.2198105256931255e-14</v>
+      </c>
+      <c r="E194">
+        <v>2</v>
+      </c>
+      <c r="F194">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="9" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B195">
+        <v>0.0043142731123836774</v>
+      </c>
+      <c r="C195">
+        <v>0.99568572688759405</v>
+      </c>
+      <c r="D195">
+        <v>2.2198122733980881e-14</v>
+      </c>
+      <c r="E195">
+        <v>2</v>
+      </c>
+      <c r="F195">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="9" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B196">
+        <v>0.0021668417188951267</v>
+      </c>
+      <c r="C196">
+        <v>0.99783315828108265</v>
+      </c>
+      <c r="D196">
+        <v>2.219811355006711e-14</v>
+      </c>
+      <c r="E196">
+        <v>2</v>
+      </c>
+      <c r="F196">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="9" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B197">
+        <v>0.005756020744049831</v>
+      </c>
+      <c r="C197">
+        <v>0.994243979255928</v>
+      </c>
+      <c r="D197">
+        <v>2.2198169695912348e-14</v>
+      </c>
+      <c r="E197">
+        <v>2</v>
+      </c>
+      <c r="F197">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="9" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B198">
+        <v>0.0042918528657807566</v>
+      </c>
+      <c r="C198">
+        <v>0.99570814713419709</v>
+      </c>
+      <c r="D198">
+        <v>2.2198702454607148e-14</v>
+      </c>
+      <c r="E198">
+        <v>2</v>
+      </c>
+      <c r="F198">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="9" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B199">
+        <v>0.011930351784706673</v>
+      </c>
+      <c r="C199">
+        <v>0.98806964821527121</v>
+      </c>
+      <c r="D199">
+        <v>2.2198256358742427e-14</v>
+      </c>
+      <c r="E199">
+        <v>2</v>
+      </c>
+      <c r="F199">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="9" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B200">
+        <v>0.0033384867123732406</v>
+      </c>
+      <c r="C200">
+        <v>0.99666151328760444</v>
+      </c>
+      <c r="D200">
+        <v>2.2198119009764208e-14</v>
+      </c>
+      <c r="E200">
+        <v>2</v>
+      </c>
+      <c r="F200">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="9" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B201">
+        <v>0.0026270453303113704</v>
+      </c>
+      <c r="C201">
+        <v>0.99737295466966647</v>
+      </c>
+      <c r="D201">
+        <v>2.2198131481799851e-14</v>
+      </c>
+      <c r="E201">
+        <v>2</v>
+      </c>
+      <c r="F201">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="9" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B202">
+        <v>0.0040870368022318275</v>
+      </c>
+      <c r="C202">
+        <v>0.99591296319774592</v>
+      </c>
+      <c r="D202">
+        <v>2.2198132744639693e-14</v>
+      </c>
+      <c r="E202">
+        <v>2</v>
+      </c>
+      <c r="F202">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="9" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B203">
+        <v>0.008146973638766172</v>
+      </c>
+      <c r="C203">
+        <v>0.99185302636121153</v>
+      </c>
+      <c r="D203">
+        <v>2.2198165471842599e-14</v>
+      </c>
+      <c r="E203">
+        <v>2</v>
+      </c>
+      <c r="F203">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="9" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B204">
+        <v>0.012739475831394611</v>
+      </c>
+      <c r="C204">
+        <v>0.98726052416858323</v>
+      </c>
+      <c r="D204">
+        <v>2.2198270258346363e-14</v>
+      </c>
+      <c r="E204">
+        <v>2</v>
+      </c>
+      <c r="F204">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="9" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B205">
+        <v>0.0011282339734630265</v>
+      </c>
+      <c r="C205">
+        <v>0.99774611477058617</v>
+      </c>
+      <c r="D205">
+        <v>0.0011256512559508359</v>
+      </c>
+      <c r="E205">
+        <v>2</v>
+      </c>
+      <c r="F205">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="9" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B206">
+        <v>0.00033818802919834796</v>
+      </c>
+      <c r="C206">
+        <v>0.99966181197072812</v>
+      </c>
+      <c r="D206">
+        <v>7.3540720816513816e-14</v>
+      </c>
+      <c r="E206">
+        <v>2</v>
+      </c>
+      <c r="F206">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="9" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B207">
+        <v>0.012324157957206218</v>
+      </c>
+      <c r="C207">
+        <v>0.98767584204046566</v>
+      </c>
+      <c r="D207">
+        <v>2.3281454423593259e-12</v>
+      </c>
+      <c r="E207">
+        <v>2</v>
+      </c>
+      <c r="F207">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="9" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B208">
+        <v>0.00053512022961124054</v>
+      </c>
+      <c r="C208">
+        <v>0.99893037700818199</v>
+      </c>
+      <c r="D208">
+        <v>0.00053450276220672098</v>
+      </c>
+      <c r="E208">
+        <v>2</v>
+      </c>
+      <c r="F208">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="9" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B209">
+        <v>0.0028318147285679171</v>
+      </c>
+      <c r="C209">
+        <v>0.99716818527130824</v>
+      </c>
+      <c r="D209">
+        <v>1.2383582651158999e-13</v>
+      </c>
+      <c r="E209">
+        <v>2</v>
+      </c>
+      <c r="F209">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="9" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B210">
+        <v>0.00034918173489195686</v>
+      </c>
+      <c r="C210">
+        <v>0.99965081826507529</v>
+      </c>
+      <c r="D210">
+        <v>3.2764686179989798e-14</v>
+      </c>
+      <c r="E210">
+        <v>2</v>
+      </c>
+      <c r="F210">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="9" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B211">
+        <v>0.0052115610513110214</v>
+      </c>
+      <c r="C211">
+        <v>0.99478843714463094</v>
+      </c>
+      <c r="D211">
+        <v>1.8040579735517623e-09</v>
+      </c>
+      <c r="E211">
+        <v>2</v>
+      </c>
+      <c r="F211">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="9" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B212">
+        <v>0.012052733577006123</v>
+      </c>
+      <c r="C212">
+        <v>0.9879472664229717</v>
+      </c>
+      <c r="D212">
+        <v>2.2198254862803534e-14</v>
+      </c>
+      <c r="E212">
+        <v>2</v>
+      </c>
+      <c r="F212">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="9" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B213">
+        <v>0.0050321812238700641</v>
+      </c>
+      <c r="C213">
+        <v>0.99496781877610774</v>
+      </c>
+      <c r="D213">
+        <v>2.2198140970381084e-14</v>
+      </c>
+      <c r="E213">
+        <v>2</v>
+      </c>
+      <c r="F213">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="9" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B214">
+        <v>0.0010702355006297736</v>
+      </c>
+      <c r="C214">
+        <v>0.99892976449934812</v>
+      </c>
+      <c r="D214">
+        <v>2.22017480562706e-14</v>
+      </c>
+      <c r="E214">
+        <v>2</v>
+      </c>
+      <c r="F214">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="9" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B215">
+        <v>0.036755410436843772</v>
+      </c>
+      <c r="C215">
+        <v>0.96324458956313408</v>
+      </c>
+      <c r="D215">
+        <v>2.2198692851712361e-14</v>
+      </c>
+      <c r="E215">
+        <v>2</v>
+      </c>
+      <c r="F215">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="9" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B216">
+        <v>0.0058043830770285795</v>
+      </c>
+      <c r="C216">
+        <v>0.99419561692294911</v>
+      </c>
+      <c r="D216">
+        <v>2.2198145305872197e-14</v>
+      </c>
+      <c r="E216">
+        <v>2</v>
+      </c>
+      <c r="F216">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="9" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B217">
+        <v>0.0014862076095850838</v>
+      </c>
+      <c r="C217">
+        <v>0.99851379239039284</v>
+      </c>
+      <c r="D217">
+        <v>2.2198075469976253e-14</v>
+      </c>
+      <c r="E217">
+        <v>2</v>
+      </c>
+      <c r="F217">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="9" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B218">
+        <v>0.00037992883390320422</v>
+      </c>
+      <c r="C218">
+        <v>0.99962007116607454</v>
+      </c>
+      <c r="D218">
+        <v>2.2203073763639067e-14</v>
+      </c>
+      <c r="E218">
+        <v>2</v>
+      </c>
+      <c r="F218">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="9" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B219">
+        <v>2.669231996525025e-05</v>
+      </c>
+      <c r="C219">
+        <v>0.99997330768001258</v>
+      </c>
+      <c r="D219">
+        <v>2.2214519887656657e-14</v>
+      </c>
+      <c r="E219">
+        <v>2</v>
+      </c>
+      <c r="F219">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="9" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B220">
+        <v>0.0018834294625280337</v>
+      </c>
+      <c r="C220">
+        <v>0.99811657053744973</v>
+      </c>
+      <c r="D220">
+        <v>2.2200777155541177e-14</v>
+      </c>
+      <c r="E220">
+        <v>2</v>
+      </c>
+      <c r="F220">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="9" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B221">
+        <v>0.00047670182478779774</v>
+      </c>
+      <c r="C221">
+        <v>0.99906857378441571</v>
+      </c>
+      <c r="D221">
+        <v>0.00045472439079660449</v>
+      </c>
+      <c r="E221">
+        <v>2</v>
+      </c>
+      <c r="F221">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="9" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B222">
+        <v>0.0014390293288327829</v>
+      </c>
+      <c r="C222">
+        <v>0.99856097067114491</v>
+      </c>
+      <c r="D222">
+        <v>2.2202619629155574e-14</v>
+      </c>
+      <c r="E222">
+        <v>2</v>
+      </c>
+      <c r="F222">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="9" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B223">
+        <v>0.00055666729014747327</v>
+      </c>
+      <c r="C223">
+        <v>0.99944333270953067</v>
+      </c>
+      <c r="D223">
+        <v>3.219015019216034e-13</v>
+      </c>
+      <c r="E223">
+        <v>2</v>
+      </c>
+      <c r="F223">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="9" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B224">
+        <v>0.0015114915239369626</v>
+      </c>
+      <c r="C224">
+        <v>0.99848850847604087</v>
+      </c>
+      <c r="D224">
+        <v>2.2199866677495194e-14</v>
+      </c>
+      <c r="E224">
+        <v>2</v>
+      </c>
+      <c r="F224">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="9" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B225">
+        <v>0.0059847389158714029</v>
+      </c>
+      <c r="C225">
+        <v>0.99401526108357552</v>
+      </c>
+      <c r="D225">
+        <v>5.5300655570412493e-13</v>
+      </c>
+      <c r="E225">
+        <v>2</v>
+      </c>
+      <c r="F225">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="9" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B226">
+        <v>0.00039982523208366492</v>
+      </c>
+      <c r="C226">
+        <v>0.99920308930033008</v>
+      </c>
+      <c r="D226">
+        <v>0.00039708546758623832</v>
+      </c>
+      <c r="E226">
+        <v>2</v>
+      </c>
+      <c r="F226">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="9" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B227">
+        <v>0.00013900137491630813</v>
+      </c>
+      <c r="C227">
+        <v>0.99986099862506139</v>
+      </c>
+      <c r="D227">
+        <v>2.2207976103898266e-14</v>
+      </c>
+      <c r="E227">
+        <v>2</v>
+      </c>
+      <c r="F227">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="9" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B228">
+        <v>0.00021350647983267931</v>
+      </c>
+      <c r="C228">
+        <v>0.99978649352014515</v>
+      </c>
+      <c r="D228">
+        <v>2.2233145926529757e-14</v>
+      </c>
+      <c r="E228">
+        <v>2</v>
+      </c>
+      <c r="F228">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="9" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B229">
+        <v>0.00068481308394056743</v>
+      </c>
+      <c r="C229">
+        <v>0.99863112121176678</v>
+      </c>
+      <c r="D229">
+        <v>0.00068406570429272026</v>
+      </c>
+      <c r="E229">
+        <v>2</v>
+      </c>
+      <c r="F229">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="9" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B230">
+        <v>0.00035457294380183708</v>
+      </c>
+      <c r="C230">
+        <v>0.99929127086472436</v>
+      </c>
+      <c r="D230">
+        <v>0.00035415619147375482</v>
+      </c>
+      <c r="E230">
+        <v>2</v>
+      </c>
+      <c r="F230">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="9" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B231">
+        <v>0.00010163920850441039</v>
+      </c>
+      <c r="C231">
+        <v>0.99989836079147343</v>
+      </c>
+      <c r="D231">
+        <v>2.2224588371955818e-14</v>
+      </c>
+      <c r="E231">
+        <v>2</v>
+      </c>
+      <c r="F231">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="9" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B232">
+        <v>0.0021061560256449073</v>
+      </c>
+      <c r="C232">
+        <v>0.99789384397433289</v>
+      </c>
+      <c r="D232">
+        <v>2.2198109157577691e-14</v>
+      </c>
+      <c r="E232">
+        <v>2</v>
+      </c>
+      <c r="F232">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="9" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B233">
+        <v>0.0037940489489840397</v>
+      </c>
+      <c r="C233">
+        <v>0.99620595105099374</v>
+      </c>
+      <c r="D233">
+        <v>2.2199107807393443e-14</v>
+      </c>
+      <c r="E233">
+        <v>2</v>
+      </c>
+      <c r="F233">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="9" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B234">
+        <v>0.0032596965146424526</v>
+      </c>
+      <c r="C234">
+        <v>0.99674030348533549</v>
+      </c>
+      <c r="D234">
+        <v>2.2198126708509568e-14</v>
+      </c>
+      <c r="E234">
+        <v>2</v>
+      </c>
+      <c r="F234">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="9" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B235">
+        <v>0.0019051835658906344</v>
+      </c>
+      <c r="C235">
+        <v>0.99809481643408715</v>
+      </c>
+      <c r="D235">
+        <v>2.2201326624538548e-14</v>
+      </c>
+      <c r="E235">
+        <v>2</v>
+      </c>
+      <c r="F235">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="9" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B236">
+        <v>0.0034466710694692451</v>
+      </c>
+      <c r="C236">
+        <v>0.99655332893050852</v>
+      </c>
+      <c r="D236">
+        <v>2.2198148493093786e-14</v>
+      </c>
+      <c r="E236">
+        <v>2</v>
+      </c>
+      <c r="F236">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="9" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B237">
+        <v>0.0017535670114039381</v>
+      </c>
+      <c r="C237">
+        <v>0.99824643298857374</v>
+      </c>
+      <c r="D237">
+        <v>2.2198256192924149e-14</v>
+      </c>
+      <c r="E237">
+        <v>2</v>
+      </c>
+      <c r="F237">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="9" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B238">
+        <v>0.0037341516233621807</v>
+      </c>
+      <c r="C238">
+        <v>0.99626584837661569</v>
+      </c>
+      <c r="D238">
+        <v>2.2198132357800588e-14</v>
+      </c>
+      <c r="E238">
+        <v>2</v>
+      </c>
+      <c r="F238">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="9" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B239">
+        <v>0.0040008051465795147</v>
+      </c>
+      <c r="C239">
+        <v>0.99599919485339827</v>
+      </c>
+      <c r="D239">
+        <v>2.2198156958477438e-14</v>
+      </c>
+      <c r="E239">
+        <v>2</v>
+      </c>
+      <c r="F239">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="9" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B240">
+        <v>0.0034163317768091794</v>
+      </c>
+      <c r="C240">
+        <v>0.99658366822316857</v>
+      </c>
+      <c r="D240">
+        <v>2.2202490527650502e-14</v>
+      </c>
+      <c r="E240">
+        <v>2</v>
+      </c>
+      <c r="F240">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="9" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B241">
+        <v>0.0081207284803779343</v>
+      </c>
+      <c r="C241">
+        <v>0.99187927151959987</v>
+      </c>
+      <c r="D241">
+        <v>2.2198284472683453e-14</v>
+      </c>
+      <c r="E241">
+        <v>2</v>
+      </c>
+      <c r="F241">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="9" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B242">
+        <v>0.0021307455833324009</v>
+      </c>
+      <c r="C242">
+        <v>0.99786925441664542</v>
+      </c>
+      <c r="D242">
+        <v>2.2198107783758574e-14</v>
+      </c>
+      <c r="E242">
+        <v>2</v>
+      </c>
+      <c r="F242">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="9" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B243">
+        <v>2.8800317457280241e-08</v>
+      </c>
+      <c r="C243">
+        <v>6.9441095843693199e-05</v>
+      </c>
+      <c r="D243">
+        <v>0.99993053010383892</v>
+      </c>
+      <c r="E243">
+        <v>3</v>
+      </c>
+      <c r="F243">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="9" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B244">
+        <v>3.6881591664511513e-08</v>
+      </c>
+      <c r="C244">
+        <v>0.00017960628244379032</v>
+      </c>
+      <c r="D244">
+        <v>0.9998203568359646</v>
+      </c>
+      <c r="E244">
+        <v>3</v>
+      </c>
+      <c r="F244">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="9" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B245">
+        <v>1.217407476546914e-09</v>
+      </c>
+      <c r="C245">
+        <v>2.3787087302743937e-05</v>
+      </c>
+      <c r="D245">
+        <v>0.99997621169528972</v>
+      </c>
+      <c r="E245">
+        <v>3</v>
+      </c>
+      <c r="F245">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="9" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B246">
+        <v>9.0109620977227512e-08</v>
+      </c>
+      <c r="C246">
+        <v>3.6998526036962234e-05</v>
+      </c>
+      <c r="D246">
+        <v>0.99996291136434201</v>
+      </c>
+      <c r="E246">
+        <v>3</v>
+      </c>
+      <c r="F246">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="9" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B247">
+        <v>1.7581013633766447e-08</v>
+      </c>
+      <c r="C247">
+        <v>0.0022784490285897522</v>
+      </c>
+      <c r="D247">
+        <v>0.9977215333903966</v>
+      </c>
+      <c r="E247">
+        <v>3</v>
+      </c>
+      <c r="F247">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="9" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B248">
+        <v>5.3638545401331899e-08</v>
+      </c>
+      <c r="C248">
+        <v>5.3502163007061114e-05</v>
+      </c>
+      <c r="D248">
+        <v>0.99994644419844747</v>
+      </c>
+      <c r="E248">
+        <v>3</v>
+      </c>
+      <c r="F248">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="9" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B249">
+        <v>5.7253957435259462e-10</v>
+      </c>
+      <c r="C249">
+        <v>8.2632129459289566e-05</v>
+      </c>
+      <c r="D249">
+        <v>0.99991736729800107</v>
+      </c>
+      <c r="E249">
+        <v>3</v>
+      </c>
+      <c r="F249">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="9" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B250">
+        <v>1.845491488326568e-10</v>
+      </c>
+      <c r="C250">
+        <v>3.5726066667917354e-06</v>
+      </c>
+      <c r="D250">
+        <v>0.99999642720878401</v>
+      </c>
+      <c r="E250">
+        <v>3</v>
+      </c>
+      <c r="F250">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="9" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B251">
+        <v>1.5354552413636098e-09</v>
+      </c>
+      <c r="C251">
+        <v>0.00013414228934536512</v>
+      </c>
+      <c r="D251">
+        <v>0.9998658561751993</v>
+      </c>
+      <c r="E251">
+        <v>3</v>
+      </c>
+      <c r="F251">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="9" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B252">
+        <v>1.4574609163682401e-10</v>
+      </c>
+      <c r="C252">
+        <v>9.5215753038126703e-05</v>
+      </c>
+      <c r="D252">
+        <v>0.99990478410121586</v>
+      </c>
+      <c r="E252">
+        <v>3</v>
+      </c>
+      <c r="F252">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="9" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B253">
+        <v>2.0218580147446248e-09</v>
+      </c>
+      <c r="C253">
+        <v>4.7573766242625204e-06</v>
+      </c>
+      <c r="D253">
+        <v>0.99999524060151779</v>
+      </c>
+      <c r="E253">
+        <v>3</v>
+      </c>
+      <c r="F253">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="9" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B254">
+        <v>5.793393695777312e-10</v>
+      </c>
+      <c r="C254">
+        <v>0.0018430300746779225</v>
+      </c>
+      <c r="D254">
+        <v>0.99815696934598264</v>
+      </c>
+      <c r="E254">
+        <v>3</v>
+      </c>
+      <c r="F254">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="9" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B255">
+        <v>3.7010661529679455e-09</v>
+      </c>
+      <c r="C255">
+        <v>0.00034745190974352615</v>
+      </c>
+      <c r="D255">
+        <v>0.99965254438919038</v>
+      </c>
+      <c r="E255">
+        <v>3</v>
+      </c>
+      <c r="F255">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="9" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B256">
+        <v>1.0092427997351855e-08</v>
+      </c>
+      <c r="C256">
+        <v>0.00047749244820917918</v>
+      </c>
+      <c r="D256">
+        <v>0.99952249745936284</v>
+      </c>
+      <c r="E256">
+        <v>3</v>
+      </c>
+      <c r="F256">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
 </file>